--- a/IOC工具对比和构思.xlsx
+++ b/IOC工具对比和构思.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\gproj\jb\jBeanBox\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="22995" windowHeight="9975" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="22995" windowHeight="9975" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Guice" sheetId="4" r:id="rId1"/>
     <sheet name="架构新" sheetId="3" r:id="rId2"/>
-    <sheet name="架构 旧备份" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="Guice学习" sheetId="2" r:id="rId5"/>
+    <sheet name="ClasspathScan" sheetId="6" r:id="rId3"/>
+    <sheet name="架构 旧备份" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet name="Guice学习" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="414">
   <si>
     <t>A 是接口， B是实现</t>
   </si>
@@ -1516,11 +1522,35 @@
   <si>
     <t>jBeanBox缺省不支持#{}EL语法，需自行定义</t>
   </si>
+  <si>
+    <t>Serv  serv;</t>
+  </si>
+  <si>
+    <t>@INJECT [无或有参数]</t>
+  </si>
+  <si>
+    <t>如果类中出现@INJECT注入：</t>
+  </si>
+  <si>
+    <t>1.从singleTonCache中找</t>
+  </si>
+  <si>
+    <t xml:space="preserve">无参数：  </t>
+  </si>
+  <si>
+    <t>2.如果是类，就创建新的</t>
+  </si>
+  <si>
+    <t>3.如果是接口，就在cachedClass里找一个实现，找到多个就报错，把实现放入singleTonCache</t>
+  </si>
+  <si>
+    <t>它的找寻顺序：</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13">
     <font>
       <sz val="11"/>
@@ -1644,7 +1674,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1720,11 +1750,15 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1732,77 +1766,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1827,6 +1796,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1" descr="http://watoud.com/images/watoud/guice-1.png">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -1878,7 +1852,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="F0F0F0"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1913,7 +1887,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1946,9 +1920,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1981,6 +1972,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5304,7 +5312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -5354,7 +5362,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>373</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -5372,7 +5380,7 @@
       <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="27"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="16" t="s">
         <v>384</v>
       </c>
@@ -5388,7 +5396,7 @@
       <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:10" ht="12.75">
-      <c r="A4" s="27"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="16" t="s">
         <v>381</v>
       </c>
@@ -5406,7 +5414,7 @@
       <c r="J4" s="16"/>
     </row>
     <row r="5" spans="1:10" ht="12.75">
-      <c r="A5" s="27"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="16" t="s">
         <v>382</v>
       </c>
@@ -5422,7 +5430,7 @@
       <c r="J5" s="16"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
-      <c r="A6" s="27"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="16" t="s">
         <v>385</v>
       </c>
@@ -5438,7 +5446,7 @@
       <c r="J6" s="16"/>
     </row>
     <row r="7" spans="1:10" ht="12.75">
-      <c r="A7" s="27"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="16" t="s">
         <v>386</v>
       </c>
@@ -5466,7 +5474,7 @@
       <c r="J8" s="16"/>
     </row>
     <row r="9" spans="1:10" ht="12.75">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="28" t="s">
         <v>370</v>
       </c>
       <c r="B9" s="16" t="s">
@@ -5494,7 +5502,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="12.75">
-      <c r="A10" s="27"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="16" t="s">
         <v>388</v>
       </c>
@@ -5513,8 +5521,8 @@
         <v>379</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="25.5">
-      <c r="A11" s="27"/>
+    <row r="11" spans="1:10" ht="38.25">
+      <c r="A11" s="28"/>
       <c r="B11" s="21" t="s">
         <v>389</v>
       </c>
@@ -5534,7 +5542,7 @@
       <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:10" ht="12.75">
-      <c r="A12" s="27"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="21" t="s">
         <v>390</v>
       </c>
@@ -5552,8 +5560,8 @@
       <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:10" ht="12.75">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28" t="s">
+      <c r="A13" s="28"/>
+      <c r="B13" s="27" t="s">
         <v>391</v>
       </c>
       <c r="C13" s="22" t="s">
@@ -5570,8 +5578,8 @@
       <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10" ht="12.75">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="27" t="s">
         <v>392</v>
       </c>
       <c r="C14" s="22" t="s">
@@ -5588,8 +5596,8 @@
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:10" ht="12.75">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28" t="s">
+      <c r="A15" s="28"/>
+      <c r="B15" s="27" t="s">
         <v>393</v>
       </c>
       <c r="C15" s="22"/>
@@ -5608,7 +5616,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="12.75">
-      <c r="A16" s="27"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="21" t="s">
         <v>394</v>
       </c>
@@ -5626,7 +5634,7 @@
       <c r="J16" s="16"/>
     </row>
     <row r="17" spans="1:11" ht="12.75">
-      <c r="A17" s="27"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="21" t="s">
         <v>395</v>
       </c>
@@ -5658,7 +5666,7 @@
       <c r="J18" s="16"/>
     </row>
     <row r="19" spans="1:11" ht="12.75">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="28" t="s">
         <v>367</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -5682,7 +5690,7 @@
       <c r="J19" s="16"/>
     </row>
     <row r="20" spans="1:11" ht="12.75">
-      <c r="A20" s="27"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="21" t="s">
         <v>388</v>
       </c>
@@ -5706,7 +5714,7 @@
       <c r="J20" s="16"/>
     </row>
     <row r="21" spans="1:11" ht="12.75">
-      <c r="A21" s="27"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="21" t="s">
         <v>397</v>
       </c>
@@ -5730,7 +5738,7 @@
       <c r="J21" s="16"/>
     </row>
     <row r="22" spans="1:11" ht="12.75">
-      <c r="A22" s="27"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="21" t="s">
         <v>398</v>
       </c>
@@ -5750,7 +5758,7 @@
       <c r="J22" s="16"/>
     </row>
     <row r="23" spans="1:11" ht="12.75">
-      <c r="A23" s="27"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="21" t="s">
         <v>399</v>
       </c>
@@ -5772,7 +5780,7 @@
       <c r="J23" s="16"/>
     </row>
     <row r="24" spans="1:11" ht="12.75">
-      <c r="A24" s="27"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="16" t="s">
         <v>380</v>
       </c>
@@ -5804,7 +5812,7 @@
       <c r="J25" s="16"/>
     </row>
     <row r="26" spans="1:11" ht="25.5">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="28" t="s">
         <v>368</v>
       </c>
       <c r="B26" s="21" t="s">
@@ -5831,7 +5839,7 @@
       <c r="K26" s="23"/>
     </row>
     <row r="27" spans="1:11" ht="12.75">
-      <c r="A27" s="27"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="21" t="s">
         <v>401</v>
       </c>
@@ -5847,7 +5855,7 @@
       <c r="J27" s="16"/>
     </row>
     <row r="28" spans="1:11" ht="12.75">
-      <c r="A28" s="27"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="21" t="s">
         <v>402</v>
       </c>
@@ -5865,7 +5873,7 @@
       <c r="J28" s="16"/>
     </row>
     <row r="29" spans="1:11" ht="12.75">
-      <c r="A29" s="27"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="21" t="s">
         <v>403</v>
       </c>
@@ -5895,6 +5903,63 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="93.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="29" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="B6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L23"/>
   <sheetViews>
@@ -6428,7 +6493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -6471,7 +6536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/IOC工具对比和构思.xlsx
+++ b/IOC工具对比和构思.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\gproj\jb\jBeanBox\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="180" windowWidth="22995" windowHeight="9975" activeTab="2"/>
   </bookViews>
@@ -1535,22 +1530,22 @@
     <t>1.从singleTonCache中找</t>
   </si>
   <si>
-    <t xml:space="preserve">无参数：  </t>
-  </si>
-  <si>
-    <t>2.如果是类，就创建新的</t>
-  </si>
-  <si>
-    <t>3.如果是接口，就在cachedClass里找一个实现，找到多个就报错，把实现放入singleTonCache</t>
-  </si>
-  <si>
     <t>它的找寻顺序：</t>
+  </si>
+  <si>
+    <t>2.从binded中找target</t>
+  </si>
+  <si>
+    <t>3.在beanBoxCache里找，如果是单例就放在singleTonCache中，如果是多例就放在binded中</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.以上都找不到，就从BeanBox里创建新的实例 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13">
     <font>
       <sz val="11"/>
@@ -1753,12 +1748,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1766,6 +1761,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1798,7 +1861,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1852,7 +1915,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="F0F0F0"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1887,7 +1950,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1920,26 +1983,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1972,23 +2018,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5362,7 +5391,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>373</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -5380,7 +5409,7 @@
       <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="28"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="16" t="s">
         <v>384</v>
       </c>
@@ -5396,7 +5425,7 @@
       <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:10" ht="12.75">
-      <c r="A4" s="28"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="16" t="s">
         <v>381</v>
       </c>
@@ -5414,7 +5443,7 @@
       <c r="J4" s="16"/>
     </row>
     <row r="5" spans="1:10" ht="12.75">
-      <c r="A5" s="28"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="16" t="s">
         <v>382</v>
       </c>
@@ -5430,7 +5459,7 @@
       <c r="J5" s="16"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
-      <c r="A6" s="28"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="16" t="s">
         <v>385</v>
       </c>
@@ -5446,7 +5475,7 @@
       <c r="J6" s="16"/>
     </row>
     <row r="7" spans="1:10" ht="12.75">
-      <c r="A7" s="28"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="16" t="s">
         <v>386</v>
       </c>
@@ -5474,7 +5503,7 @@
       <c r="J8" s="16"/>
     </row>
     <row r="9" spans="1:10" ht="12.75">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="30" t="s">
         <v>370</v>
       </c>
       <c r="B9" s="16" t="s">
@@ -5502,7 +5531,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="12.75">
-      <c r="A10" s="28"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="16" t="s">
         <v>388</v>
       </c>
@@ -5522,7 +5551,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="38.25">
-      <c r="A11" s="28"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="21" t="s">
         <v>389</v>
       </c>
@@ -5542,7 +5571,7 @@
       <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:10" ht="12.75">
-      <c r="A12" s="28"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="21" t="s">
         <v>390</v>
       </c>
@@ -5560,7 +5589,7 @@
       <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:10" ht="12.75">
-      <c r="A13" s="28"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="27" t="s">
         <v>391</v>
       </c>
@@ -5578,7 +5607,7 @@
       <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10" ht="12.75">
-      <c r="A14" s="28"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="27" t="s">
         <v>392</v>
       </c>
@@ -5596,7 +5625,7 @@
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:10" ht="12.75">
-      <c r="A15" s="28"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="27" t="s">
         <v>393</v>
       </c>
@@ -5616,7 +5645,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="12.75">
-      <c r="A16" s="28"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="21" t="s">
         <v>394</v>
       </c>
@@ -5634,7 +5663,7 @@
       <c r="J16" s="16"/>
     </row>
     <row r="17" spans="1:11" ht="12.75">
-      <c r="A17" s="28"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="21" t="s">
         <v>395</v>
       </c>
@@ -5666,7 +5695,7 @@
       <c r="J18" s="16"/>
     </row>
     <row r="19" spans="1:11" ht="12.75">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="30" t="s">
         <v>367</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -5690,7 +5719,7 @@
       <c r="J19" s="16"/>
     </row>
     <row r="20" spans="1:11" ht="12.75">
-      <c r="A20" s="28"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="21" t="s">
         <v>388</v>
       </c>
@@ -5714,7 +5743,7 @@
       <c r="J20" s="16"/>
     </row>
     <row r="21" spans="1:11" ht="12.75">
-      <c r="A21" s="28"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="21" t="s">
         <v>397</v>
       </c>
@@ -5738,7 +5767,7 @@
       <c r="J21" s="16"/>
     </row>
     <row r="22" spans="1:11" ht="12.75">
-      <c r="A22" s="28"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="21" t="s">
         <v>398</v>
       </c>
@@ -5758,7 +5787,7 @@
       <c r="J22" s="16"/>
     </row>
     <row r="23" spans="1:11" ht="12.75">
-      <c r="A23" s="28"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="21" t="s">
         <v>399</v>
       </c>
@@ -5780,7 +5809,7 @@
       <c r="J23" s="16"/>
     </row>
     <row r="24" spans="1:11" ht="12.75">
-      <c r="A24" s="28"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="16" t="s">
         <v>380</v>
       </c>
@@ -5812,7 +5841,7 @@
       <c r="J25" s="16"/>
     </row>
     <row r="26" spans="1:11" ht="25.5">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="30" t="s">
         <v>368</v>
       </c>
       <c r="B26" s="21" t="s">
@@ -5839,7 +5868,7 @@
       <c r="K26" s="23"/>
     </row>
     <row r="27" spans="1:11" ht="12.75">
-      <c r="A27" s="28"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="21" t="s">
         <v>401</v>
       </c>
@@ -5855,7 +5884,7 @@
       <c r="J27" s="16"/>
     </row>
     <row r="28" spans="1:11" ht="12.75">
-      <c r="A28" s="28"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="21" t="s">
         <v>402</v>
       </c>
@@ -5873,7 +5902,7 @@
       <c r="J28" s="16"/>
     </row>
     <row r="29" spans="1:11" ht="12.75">
-      <c r="A29" s="28"/>
+      <c r="A29" s="30"/>
       <c r="B29" s="21" t="s">
         <v>403</v>
       </c>
@@ -5904,16 +5933,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="93.5703125" customWidth="1"/>
+    <col min="2" max="2" width="118.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5922,7 +5951,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>407</v>
       </c>
     </row>
@@ -5933,13 +5962,11 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="30" t="s">
-        <v>410</v>
-      </c>
+      <c r="A6" s="29"/>
       <c r="B6" t="s">
         <v>409</v>
       </c>
@@ -5952,6 +5979,11 @@
     <row r="8" spans="1:2">
       <c r="B8" t="s">
         <v>412</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" t="s">
+        <v>413</v>
       </c>
     </row>
   </sheetData>

--- a/IOC工具对比和构思.xlsx
+++ b/IOC工具对比和构思.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\gproj\jb\jBeanBox\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="180" windowWidth="22995" windowHeight="9975" activeTab="2"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="416">
   <si>
     <t>A 是接口， B是实现</t>
   </si>
@@ -1452,9 +1457,6 @@
     <t>@INJECT</t>
   </si>
   <si>
-    <t>@SINGLETON</t>
-  </si>
-  <si>
     <t>@POSTCONSTRUCT</t>
   </si>
   <si>
@@ -1521,12 +1523,6 @@
     <t>Serv  serv;</t>
   </si>
   <si>
-    <t>@INJECT [无或有参数]</t>
-  </si>
-  <si>
-    <t>如果类中出现@INJECT注入：</t>
-  </si>
-  <si>
     <t>1.从singleTonCache中找</t>
   </si>
   <si>
@@ -1540,12 +1536,33 @@
   </si>
   <si>
     <t xml:space="preserve">4.以上都找不到，就从BeanBox里创建新的实例 </t>
+  </si>
+  <si>
+    <t>如果某个属性出现@INJECT注入：</t>
+  </si>
+  <si>
+    <t>各种参数 情况： 
+@INJECT
+@INJECT(Some.class );
+@INJECT(Some.class,pureValue=true);
+@INJECT(qualifier=Q.class);
+@INJECT(qualifier=Q.class, typed=Enum1.class);
+@INJECT(qualifier=Q.class, named="name1");</t>
+  </si>
+  <si>
+    <t>@COMPONENT</t>
+  </si>
+  <si>
+    <t>不允许出现在类上</t>
+  </si>
+  <si>
+    <t>兼容Spring的Componet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13">
     <font>
       <sz val="11"/>
@@ -1669,7 +1686,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1748,7 +1765,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1761,74 +1777,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1861,7 +1809,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1915,7 +1863,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="F0F0F0"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1950,7 +1898,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1983,9 +1931,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2018,6 +1983,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2196,8 +2178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D520"/>
   <sheetViews>
-    <sheetView topLeftCell="A520" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView topLeftCell="A286" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C193" sqref="C193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5341,8 +5323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5391,7 +5373,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>373</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -5406,14 +5388,18 @@
       <c r="I2" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="J2" s="16"/>
+      <c r="J2" s="16" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="30"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="C3" s="16"/>
+        <v>381</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
@@ -5425,13 +5411,11 @@
       <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:10" ht="12.75">
-      <c r="A4" s="30"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>16</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="C4" s="16"/>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
@@ -5443,9 +5427,9 @@
       <c r="J4" s="16"/>
     </row>
     <row r="5" spans="1:10" ht="12.75">
-      <c r="A5" s="30"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="16" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -5459,7 +5443,7 @@
       <c r="J5" s="16"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
-      <c r="A6" s="30"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="16" t="s">
         <v>385</v>
       </c>
@@ -5475,9 +5459,9 @@
       <c r="J6" s="16"/>
     </row>
     <row r="7" spans="1:10" ht="12.75">
-      <c r="A7" s="30"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="16" t="s">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -5488,7 +5472,9 @@
       <c r="I7" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="J7" s="16"/>
+      <c r="J7" s="16" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="12.75">
       <c r="A8" s="16"/>
@@ -5503,11 +5489,11 @@
       <c r="J8" s="16"/>
     </row>
     <row r="9" spans="1:10" ht="12.75">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="29" t="s">
         <v>370</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16" t="s">
@@ -5531,9 +5517,9 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="12.75">
-      <c r="A10" s="30"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -5551,9 +5537,9 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="38.25">
-      <c r="A11" s="30"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>16</v>
@@ -5571,9 +5557,9 @@
       <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:10" ht="12.75">
-      <c r="A12" s="30"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="21" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -5589,9 +5575,9 @@
       <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:10" ht="12.75">
-      <c r="A13" s="30"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="27" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>16</v>
@@ -5607,9 +5593,9 @@
       <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10" ht="12.75">
-      <c r="A14" s="30"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="27" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>16</v>
@@ -5625,9 +5611,9 @@
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:10" ht="12.75">
-      <c r="A15" s="30"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="27" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
@@ -5641,13 +5627,13 @@
         <v>364</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="12.75">
-      <c r="A16" s="30"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="21" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>16</v>
@@ -5663,9 +5649,9 @@
       <c r="J16" s="16"/>
     </row>
     <row r="17" spans="1:11" ht="12.75">
-      <c r="A17" s="30"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -5679,7 +5665,7 @@
         <v>364</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="12.75">
@@ -5695,11 +5681,11 @@
       <c r="J18" s="16"/>
     </row>
     <row r="19" spans="1:11" ht="12.75">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="29" t="s">
         <v>367</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>16</v>
@@ -5719,9 +5705,9 @@
       <c r="J19" s="16"/>
     </row>
     <row r="20" spans="1:11" ht="12.75">
-      <c r="A20" s="30"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -5743,9 +5729,9 @@
       <c r="J20" s="16"/>
     </row>
     <row r="21" spans="1:11" ht="12.75">
-      <c r="A21" s="30"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="21" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -5767,9 +5753,9 @@
       <c r="J21" s="16"/>
     </row>
     <row r="22" spans="1:11" ht="12.75">
-      <c r="A22" s="30"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="21" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16" t="s">
@@ -5787,9 +5773,9 @@
       <c r="J22" s="16"/>
     </row>
     <row r="23" spans="1:11" ht="12.75">
-      <c r="A23" s="30"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>16</v>
@@ -5809,7 +5795,7 @@
       <c r="J23" s="16"/>
     </row>
     <row r="24" spans="1:11" ht="12.75">
-      <c r="A24" s="30"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="16" t="s">
         <v>380</v>
       </c>
@@ -5841,11 +5827,11 @@
       <c r="J25" s="16"/>
     </row>
     <row r="26" spans="1:11" ht="25.5">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="29" t="s">
         <v>368</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -5859,7 +5845,7 @@
         <v>364</v>
       </c>
       <c r="H26" s="16"/>
-      <c r="I26" s="16" t="s">
+      <c r="I26" s="26" t="s">
         <v>364</v>
       </c>
       <c r="J26" s="16" t="s">
@@ -5868,9 +5854,9 @@
       <c r="K26" s="23"/>
     </row>
     <row r="27" spans="1:11" ht="12.75">
-      <c r="A27" s="30"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="21" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -5884,9 +5870,9 @@
       <c r="J27" s="16"/>
     </row>
     <row r="28" spans="1:11" ht="12.75">
-      <c r="A28" s="30"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="21" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -5902,9 +5888,9 @@
       <c r="J28" s="16"/>
     </row>
     <row r="29" spans="1:11" ht="12.75">
-      <c r="A29" s="30"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="21" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -5933,57 +5919,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="48.140625" customWidth="1"/>
     <col min="2" max="2" width="118.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="28" t="s">
-        <v>407</v>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="105">
+      <c r="A2" s="6" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="B7" t="s">
         <v>406</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="29"/>
-      <c r="B6" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="B7" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" t="s">
-        <v>413</v>
+        <v>409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
+        <v>410</v>
       </c>
     </row>
   </sheetData>
